--- a/biology/Botanique/Mert/Mert..xlsx
+++ b/biology/Botanique/Mert/Mert..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Franz Karl Mertens, né le 3 avril 1764 à Bielefeld et mort le 19 juin 1831 à Brême, est un botaniste prussien.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son père, Clamor Mertens, est d’origine noble, mais pauvre. Il étudie la théologie et les langues à l’université de Halle et obtient un poste à l’école polytechnique de Brême. Il consacre tout son temps libre à sa passion : la botanique. Grâce à un ami commun, il rencontre le botaniste Albrecht Wilhelm Roth (1757-1834) d’Oldenbourg. Les deux hommes voyagent ensemble, Mertens se consacrant à l’étude des algues.
 Son fils, le botaniste Karl Heinrich Mertens (1796-1830), collecta pour l'Académie impériale des sciences de Saint-Pétersbourg de nombreuses espèces au cours de deux expéditions du navire russe, le Seniavine, (autour du monde en 1826-1829 et Islande en 1829-1830) qui ont été baptisées de son nom et qui ne doivent pas être confondues avec les taxons nommés en l'honneur de Franz Carl Mertens.
